--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="144">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -425,6 +425,42 @@
   </si>
   <si>
     <t>27 Jun 2020 22:57:45</t>
+  </si>
+  <si>
+    <t>23 Jul 2020 19:37:09</t>
+  </si>
+  <si>
+    <t>23 Jul 2020 19:38:00</t>
+  </si>
+  <si>
+    <t>23 Jul 2020 19:37:59</t>
+  </si>
+  <si>
+    <t>23 Jul 2020 19:38:02</t>
+  </si>
+  <si>
+    <t>23 Jul 2020 19:38:19</t>
+  </si>
+  <si>
+    <t>23 Jul 2020 19:38:18</t>
+  </si>
+  <si>
+    <t>23 Jul 2020 19:38:08</t>
+  </si>
+  <si>
+    <t>23 Jul 2020 19:38:28</t>
+  </si>
+  <si>
+    <t>23 Jul 2020 19:38:22</t>
+  </si>
+  <si>
+    <t>23 Jul 2020 19:38:38</t>
+  </si>
+  <si>
+    <t>23 Jul 2020 19:38:39</t>
+  </si>
+  <si>
+    <t>23 Jul 2020 19:38:55</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1091,10 @@
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="H2" t="s">
         <v>54</v>
@@ -1081,10 +1117,10 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="H3" t="s">
         <v>54</v>
@@ -1107,10 +1143,10 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="H4" t="s">
         <v>54</v>
@@ -1133,10 +1169,10 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="H5" t="s">
         <v>54</v>
@@ -1159,10 +1195,10 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="H6" t="s">
         <v>54</v>
@@ -1185,10 +1221,10 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="H7" t="s">
         <v>54</v>
@@ -1211,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="H8" t="s">
         <v>54</v>
@@ -1237,10 +1273,10 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="H9" t="s">
         <v>54</v>
@@ -1263,10 +1299,10 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="H10" t="s">
         <v>54</v>
@@ -1289,10 +1325,10 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="H11" t="s">
         <v>54</v>
@@ -1315,10 +1351,10 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="H12" t="s">
         <v>54</v>
@@ -1341,10 +1377,10 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="H13" t="s">
         <v>54</v>
@@ -1367,10 +1403,10 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="H14" t="s">
         <v>54</v>
@@ -1393,10 +1429,10 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="H15" t="s">
         <v>54</v>
@@ -1419,10 +1455,10 @@
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H16" t="s">
         <v>53</v>
@@ -1445,10 +1481,10 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="H17" t="s">
         <v>54</v>
@@ -1471,10 +1507,10 @@
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="H18" t="s">
         <v>54</v>
@@ -1497,10 +1533,10 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="H19" t="s">
         <v>54</v>
@@ -1523,10 +1559,10 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="H20" t="s">
         <v>54</v>
@@ -1549,10 +1585,10 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="H21" t="s">
         <v>54</v>
@@ -1575,10 +1611,10 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="H22" t="s">
         <v>54</v>
@@ -1601,10 +1637,10 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="H23" t="s">
         <v>54</v>
@@ -1627,10 +1663,10 @@
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="H24" t="s">
         <v>54</v>
@@ -1653,10 +1689,10 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="H25" t="s">
         <v>54</v>
@@ -1679,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G26" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="H26" t="s">
         <v>54</v>
